--- a/synthesis/dynamics_synthesis_2021-05-28.xlsx
+++ b/synthesis/dynamics_synthesis_2021-05-28.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t xml:space="preserve">report_country</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
-    <t xml:space="preserve">262 %</t>
+    <t xml:space="preserve">269 %</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
@@ -62,10 +62,16 @@
     <t xml:space="preserve">352 %</t>
   </si>
   <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1539 %</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">140 %</t>
+    <t xml:space="preserve">144 %</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
@@ -74,787 +80,793 @@
     <t xml:space="preserve">High</t>
   </si>
   <si>
+    <t xml:space="preserve">24 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sint Maarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5677 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupied Palestinian territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1316 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
     <t xml:space="preserve">23 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint Maarten</t>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curaçao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
     <t xml:space="preserve">58 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1031 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5677 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1448 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 %</t>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
-    <t xml:space="preserve">145 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
+    <t xml:space="preserve">143 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Barthélemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">70 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupied Palestinian territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1284 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curaçao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadeloupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Barthélemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Virgin Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">Papua New Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">301 %</t>
+    <t xml:space="preserve">247 %</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 %</t>
   </si>
   <si>
     <t xml:space="preserve">Singapore</t>
@@ -1235,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1281,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E4" t="n">
         <v>0.02</v>
@@ -1293,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1327,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1347,45 +1359,45 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1393,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1416,16 +1428,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -1439,22 +1451,22 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1462,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>0.02</v>
@@ -1477,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1485,16 +1497,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1508,22 +1520,22 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1531,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
@@ -1554,22 +1566,22 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1577,16 +1589,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F17" t="s">
         <v>40</v>
@@ -1600,22 +1612,22 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F18" t="s">
         <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1623,16 +1635,16 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -1646,22 +1658,22 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1669,13 +1681,13 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E21" t="n">
         <v>0.03</v>
@@ -1692,22 +1704,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1715,39 +1727,39 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
@@ -1761,22 +1773,22 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02</v>
+        <v>0.13</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02</v>
+        <v>0.14</v>
       </c>
       <c r="F25" t="s">
         <v>57</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1784,22 +1796,22 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02</v>
+        <v>0.13</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01</v>
+        <v>0.19</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1807,22 +1819,22 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1830,22 +1842,22 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11</v>
+        <v>-0.02</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1853,22 +1865,22 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E29" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1876,22 +1888,22 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="D30" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="s">
         <v>67</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1899,33 +1911,33 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D32" t="n">
         <v>0.01</v>
@@ -1937,7 +1949,7 @@
         <v>72</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1945,16 +1957,16 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
@@ -1968,22 +1980,22 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.07</v>
+        <v>0.01</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F34" t="s">
         <v>76</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1991,22 +2003,22 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="F35" t="s">
         <v>78</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2014,13 +2026,13 @@
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E36" t="n">
         <v>0.03</v>
@@ -2029,7 +2041,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2037,22 +2049,22 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>82</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2060,7 +2072,7 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2072,33 +2084,33 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>85</v>
       </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>65</v>
-      </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2106,16 +2118,16 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
@@ -2129,22 +2141,22 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="F41" t="s">
         <v>89</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2152,22 +2164,22 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2175,13 +2187,13 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -2198,22 +2210,22 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>95</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2221,22 +2233,22 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2244,65 +2256,65 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F48" t="s">
         <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="F48" t="s">
-        <v>76</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2313,22 +2325,22 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="D49" t="n">
         <v>-0.09</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2336,22 +2348,22 @@
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F50" t="s">
         <v>104</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2359,22 +2371,22 @@
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="F51" t="s">
         <v>106</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2382,65 +2394,65 @@
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F53" t="s">
-        <v>110</v>
-      </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E54" t="n">
         <v>0.02</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2448,22 +2460,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F55" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="F55" t="s">
-        <v>114</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2471,22 +2483,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="F56" t="s">
-        <v>116</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2494,22 +2506,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F57" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="F57" t="s">
-        <v>59</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2520,7 +2532,7 @@
         <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2543,53 +2555,53 @@
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C60" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D60" t="n">
         <v>-0.02</v>
       </c>
-      <c r="D60" t="n">
-        <v>-0.03</v>
-      </c>
       <c r="E60" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2601,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2609,22 +2621,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="D62" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E62" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2632,22 +2644,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2658,19 +2670,19 @@
         <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2678,22 +2690,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F65" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F65" t="s">
-        <v>132</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2701,22 +2713,22 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F66" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>134</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2724,22 +2736,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.07</v>
+        <v>-0.1</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.09</v>
+        <v>-0.14</v>
       </c>
       <c r="E67" t="n">
         <v>-0.06</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2747,22 +2759,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2770,45 +2782,45 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
       </c>
-      <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
-      </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2816,22 +2828,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2839,10 +2851,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C72" t="n">
         <v>-0.04</v>
@@ -2851,10 +2863,10 @@
         <v>-0.04</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2862,22 +2874,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C73" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E73" t="n">
         <v>-0.03</v>
       </c>
-      <c r="D73" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="F73" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2885,22 +2897,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2908,10 +2920,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2923,7 +2935,7 @@
         <v>0.01</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2931,22 +2943,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2954,22 +2966,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E77" t="n">
         <v>-0.01</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2977,45 +2989,45 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.09</v>
+        <v>-0.07</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="D79" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="E79" t="n">
         <v>-0.06</v>
       </c>
-      <c r="E79" t="n">
-        <v>-0.05</v>
-      </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3023,22 +3035,22 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D80" t="n">
         <v>-0.01</v>
       </c>
-      <c r="D80" t="n">
-        <v>-0.03</v>
-      </c>
       <c r="E80" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
         <v>-0.1</v>
@@ -3061,7 +3073,7 @@
         <v>-0.08</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3069,13 +3081,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D82" t="n">
         <v>0.02</v>
@@ -3084,53 +3096,53 @@
         <v>0.05</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.28</v>
+        <v>-0.16</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.34</v>
+        <v>-0.23</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.22</v>
+        <v>-0.1</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3138,22 +3150,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C85" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E85" t="n">
         <v>-0.03</v>
       </c>
-      <c r="D85" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="F85" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3161,68 +3173,68 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="F86" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.01</v>
       </c>
-      <c r="E87" t="n">
-        <v>0.03</v>
-      </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.08</v>
+        <v>0.01</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3230,91 +3242,91 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.07</v>
+        <v>-0.01</v>
       </c>
       <c r="E89" t="n">
         <v>0.02</v>
       </c>
       <c r="F89" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03</v>
+        <v>-0.07</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03</v>
+        <v>-0.07</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E91" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F91" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3322,206 +3334,206 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>-0.04</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F93" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="F94" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="F96" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.13</v>
+        <v>0.01</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.43</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.48</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.38</v>
+        <v>0.01</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1</v>
+        <v>-0.17</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.07</v>
+        <v>-0.13</v>
       </c>
       <c r="F101" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3529,45 +3541,45 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.02</v>
+        <v>-0.43</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.04</v>
+        <v>-0.48</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="D103" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E103" t="n">
         <v>-0.07</v>
       </c>
-      <c r="E103" t="n">
-        <v>-0.06</v>
-      </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3575,68 +3587,68 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.07</v>
+        <v>-0.04</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F105" t="s">
         <v>184</v>
       </c>
-      <c r="B105" t="s">
-        <v>125</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-0.07</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F105" t="s">
-        <v>185</v>
-      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3644,45 +3656,45 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="F107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="F108" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3690,10 +3702,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C109" t="n">
         <v>-0.07</v>
@@ -3702,33 +3714,33 @@
         <v>-0.07</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="F109" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1</v>
+        <v>-0.07</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3736,22 +3748,22 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C111" t="n">
         <v>-0.06</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="E111" t="n">
         <v>-0.06</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3759,22 +3771,22 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3782,22 +3794,22 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D113" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E113" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E113" t="n">
-        <v>-0.04</v>
-      </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3805,22 +3817,22 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3828,45 +3840,45 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F115" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3874,36 +3886,36 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.07</v>
+        <v>-0.02</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.07</v>
+        <v>-0.02</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.07</v>
+        <v>-0.02</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="D118" t="n">
         <v>-0.03</v>
@@ -3912,7 +3924,7 @@
         <v>-0.02</v>
       </c>
       <c r="F118" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3923,19 +3935,19 @@
         <v>201</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="F119" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3946,19 +3958,19 @@
         <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="F120" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3966,68 +3978,68 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="F123" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4035,25 +4047,25 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C124" t="n">
         <v>-0.04</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="F124" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -4061,19 +4073,19 @@
         <v>208</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4081,45 +4093,45 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="F127" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -4127,33 +4139,33 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="E128" t="n">
         <v>-0.01</v>
       </c>
       <c r="F128" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C129" t="n">
         <v>-0.05</v>
@@ -4165,7 +4177,7 @@
         <v>-0.04</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4173,22 +4185,22 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07</v>
+        <v>-0.01</v>
       </c>
       <c r="F130" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4196,22 +4208,22 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F131" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4219,22 +4231,22 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="F132" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4242,22 +4254,22 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="F133" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -4265,22 +4277,22 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.14</v>
+        <v>-0.06</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="F134" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4291,42 +4303,42 @@
         <v>220</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F135" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01</v>
+        <v>-0.13</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4334,22 +4346,22 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.06</v>
+        <v>0.02</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.07</v>
+        <v>0.01</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4357,22 +4369,22 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="F138" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4380,22 +4392,22 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4403,22 +4415,22 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
         <v>226</v>
-      </c>
-      <c r="B140" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="D140" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F140" t="s">
-        <v>160</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4429,19 +4441,19 @@
         <v>227</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.07</v>
+        <v>-0.21</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.07</v>
+        <v>0.01</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4452,19 +4464,19 @@
         <v>228</v>
       </c>
       <c r="B142" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="F142" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4475,7 +4487,7 @@
         <v>229</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C143" t="n">
         <v>-0.05</v>
@@ -4487,7 +4499,7 @@
         <v>-0.05</v>
       </c>
       <c r="F143" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4498,22 +4510,22 @@
         <v>230</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F144" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4521,19 +4533,19 @@
         <v>231</v>
       </c>
       <c r="B145" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.07</v>
+        <v>-0.03</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="F145" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4541,22 +4553,22 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F146" t="s">
         <v>233</v>
-      </c>
-      <c r="B146" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D146" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="F146" t="s">
-        <v>67</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4567,88 +4579,88 @@
         <v>234</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="F147" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="F148" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="F149" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F150" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4656,22 +4668,22 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="D151" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E151" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E151" t="n">
-        <v>0.01</v>
-      </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4679,45 +4691,45 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.07</v>
+        <v>0.02</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F152" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="E153" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4725,22 +4737,22 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.03</v>
+        <v>-0.07</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.07</v>
+        <v>-0.12</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4748,22 +4760,22 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>243</v>
+      </c>
+      <c r="B155" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
         <v>244</v>
-      </c>
-      <c r="B155" t="s">
-        <v>125</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="D155" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="s">
-        <v>187</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4774,19 +4786,19 @@
         <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="F156" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4794,22 +4806,22 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>246</v>
+      </c>
+      <c r="B157" t="s">
+        <v>127</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F157" t="s">
         <v>247</v>
-      </c>
-      <c r="B157" t="s">
-        <v>125</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D157" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F157" t="s">
-        <v>248</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4817,22 +4829,22 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4840,22 +4852,22 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="F159" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4863,71 +4875,71 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>251</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F160" t="s">
         <v>252</v>
       </c>
-      <c r="B160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="D160" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="F160" t="s">
-        <v>253</v>
-      </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="D161" t="n">
-        <v>0.03</v>
+        <v>-0.09</v>
       </c>
       <c r="E161" t="n">
-        <v>0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="F161" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
         <v>255</v>
       </c>
-      <c r="B162" t="s">
-        <v>125</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="D162" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F162" t="s">
-        <v>154</v>
-      </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4935,19 +4947,19 @@
         <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="E163" t="n">
         <v>-0.02</v>
       </c>
       <c r="F163" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4958,19 +4970,19 @@
         <v>257</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.07</v>
+        <v>-0.11</v>
       </c>
       <c r="F164" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4981,7 +4993,7 @@
         <v>258</v>
       </c>
       <c r="B165" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C165" t="n">
         <v>-0.02</v>
@@ -4993,10 +5005,10 @@
         <v>-0.02</v>
       </c>
       <c r="F165" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -5004,7 +5016,7 @@
         <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C166" t="n">
         <v>0.01</v>
@@ -5016,7 +5028,7 @@
         <v>0.01</v>
       </c>
       <c r="F166" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5027,22 +5039,22 @@
         <v>260</v>
       </c>
       <c r="B167" t="s">
+        <v>127</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F167" t="s">
         <v>125</v>
       </c>
-      <c r="C167" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F167" t="s">
-        <v>65</v>
-      </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5050,22 +5062,22 @@
         <v>261</v>
       </c>
       <c r="B168" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="D168" t="n">
         <v>-0.07</v>
       </c>
       <c r="E168" t="n">
-        <v>0.06</v>
+        <v>-0.06</v>
       </c>
       <c r="F168" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -5073,19 +5085,19 @@
         <v>262</v>
       </c>
       <c r="B169" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="E169" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5096,22 +5108,22 @@
         <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C170" t="n">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="E170" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5119,22 +5131,22 @@
         <v>264</v>
       </c>
       <c r="B171" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F171" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5142,22 +5154,22 @@
         <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="D172" t="n">
         <v>-0.04</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F172" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5165,22 +5177,22 @@
         <v>266</v>
       </c>
       <c r="B173" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E173" t="n">
-        <v>0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F173" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5188,19 +5200,19 @@
         <v>267</v>
       </c>
       <c r="B174" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F174" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5208,48 +5220,48 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B175" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E175" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F175" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F176" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -5257,19 +5269,19 @@
         <v>271</v>
       </c>
       <c r="B177" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04</v>
+        <v>-0.04</v>
       </c>
       <c r="F177" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5277,22 +5289,22 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F178" t="s">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -5303,53 +5315,53 @@
         <v>274</v>
       </c>
       <c r="B179" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.07</v>
+        <v>-0.01</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F179" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E180" t="n">
         <v>0.03</v>
       </c>
       <c r="F180" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C181" t="n">
         <v>-0.02</v>
@@ -5361,7 +5373,7 @@
         <v>0.01</v>
       </c>
       <c r="F181" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5369,22 +5381,22 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="E182" t="n">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="F182" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5392,22 +5404,22 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>-0.06</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="F183" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5415,66 +5427,68 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B185" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C185" t="n">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="F185" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>282</v>
-      </c>
-      <c r="B186"/>
+        <v>285</v>
+      </c>
+      <c r="B186" t="s">
+        <v>127</v>
+      </c>
       <c r="C186" t="n">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F186" t="s">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5482,64 +5496,85 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="n">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="D187" t="n">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="E187" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B188"/>
       <c r="C188" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.03</v>
+        <v>0.14</v>
       </c>
       <c r="F188" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F189" t="s">
+        <v>287</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>290</v>
+      </c>
+      <c r="B190"/>
+      <c r="C190" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E190" t="n">
         <v>0.07</v>
       </c>
-      <c r="D189" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F189" t="s">
-        <v>283</v>
-      </c>
-      <c r="G189" t="n">
+      <c r="F190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G190" t="n">
         <v>0</v>
       </c>
     </row>
